--- a/resources/experiment 1/metrics/R2/upto time/Amputación extremidades inferiores (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Amputación extremidades inferiores (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9741962239174415</v>
+        <v>0.9611747957027545</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9743225182023255</v>
+        <v>0.9615618327530926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9743225182023255</v>
+        <v>0.9622461683715564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9739663071228256</v>
+        <v>0.9689964937569749</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9739663529069844</v>
+        <v>0.9690534459926882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9739663529069844</v>
+        <v>0.9681545497218166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9593062687788856</v>
+        <v>0.8607160848286131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9592474397853853</v>
+        <v>0.8495389020390851</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9592474397853853</v>
+        <v>0.8413193015896632</v>
       </c>
     </row>
   </sheetData>
